--- a/Team-Data/2011-12/2-16-2011-12.xlsx
+++ b/Team-Data/2011-12/2-16-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>3.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -774,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
@@ -792,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -848,67 +915,67 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.517</v>
+        <v>0.536</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J3" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
         <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.385</v>
+        <v>0.391</v>
       </c>
       <c r="O3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.757</v>
+        <v>0.754</v>
       </c>
       <c r="R3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>30.1</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
         <v>5.1</v>
@@ -920,34 +987,34 @@
         <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
       </c>
       <c r="AF3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG3" t="n">
         <v>14</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
         <v>20</v>
@@ -956,7 +1023,7 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>24</v>
@@ -974,28 +1041,28 @@
         <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX3" t="n">
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,13 +1187,13 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1171,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -1212,79 +1279,79 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.781</v>
+        <v>0.774</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.384</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P5" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.734</v>
+        <v>0.736</v>
       </c>
       <c r="R5" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T5" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U5" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC5" t="n">
         <v>9.800000000000001</v>
@@ -1305,13 +1372,13 @@
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1326,10 +1393,10 @@
         <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1541,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
@@ -1675,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
         <v>7</v>
@@ -1690,7 +1757,7 @@
         <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1705,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>3.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1893,7 +1960,7 @@
         <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>25</v>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
@@ -2060,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2215,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2397,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="AI11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
@@ -2421,10 +2488,10 @@
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>12</v>
@@ -2436,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="AV11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW11" t="n">
         <v>14</v>
@@ -2454,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -2486,73 +2553,73 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.586</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J12" t="n">
         <v>80.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O12" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P12" t="n">
         <v>25.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.1</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>17.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y12" t="n">
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA12" t="n">
         <v>21.2</v>
@@ -2561,10 +2628,10 @@
         <v>94.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>10</v>
@@ -2576,16 +2643,16 @@
         <v>10</v>
       </c>
       <c r="AH12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI12" t="n">
         <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>5</v>
@@ -2603,10 +2670,10 @@
         <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS12" t="n">
         <v>13</v>
@@ -2618,22 +2685,22 @@
         <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX12" t="n">
         <v>9</v>
       </c>
-      <c r="AX12" t="n">
-        <v>8</v>
-      </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>24</v>
       </c>
       <c r="BA12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2735,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.679</v>
+        <v>0.667</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L13" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="M13" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.362</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P13" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.678</v>
+        <v>0.679</v>
       </c>
       <c r="R13" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T13" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W13" t="n">
         <v>7.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y13" t="n">
         <v>4.1</v>
@@ -2737,19 +2804,19 @@
         <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>3</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>4</v>
@@ -2758,16 +2825,16 @@
         <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ13" t="n">
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
         <v>4</v>
@@ -2776,28 +2843,28 @@
         <v>4</v>
       </c>
       <c r="AN13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO13" t="n">
         <v>11</v>
       </c>
-      <c r="AO13" t="n">
-        <v>12</v>
-      </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>5</v>
@@ -2806,7 +2873,7 @@
         <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
         <v>2</v>
@@ -2815,10 +2882,10 @@
         <v>25</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
@@ -3000,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3140,10 +3207,10 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3158,13 +3225,13 @@
         <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>25</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3173,7 +3240,7 @@
         <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>2</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3486,7 +3553,7 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3534,7 +3601,7 @@
         <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3698,7 +3765,7 @@
         <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>6</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>0.258</v>
+        <v>0.267</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,31 +3845,31 @@
         <v>33.5</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.426</v>
+        <v>0.424</v>
       </c>
       <c r="L19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="M19" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O19" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P19" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
         <v>26.7</v>
@@ -3811,46 +3878,46 @@
         <v>38.8</v>
       </c>
       <c r="U19" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V19" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
         <v>20.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,7 +3926,7 @@
         <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3880,19 +3947,19 @@
         <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>26</v>
@@ -3901,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>15</v>
@@ -3910,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4062,7 +4129,7 @@
         <v>20</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>1.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,10 +4463,10 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>6</v>
@@ -4617,13 +4684,13 @@
         <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>5</v>
@@ -4757,19 +4824,19 @@
         <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
         <v>18</v>
@@ -4778,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4981,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
         <v>13</v>
@@ -4990,7 +5057,7 @@
         <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.516</v>
+        <v>0.533</v>
       </c>
       <c r="H26" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>83.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
         <v>6.2</v>
       </c>
       <c r="M26" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.319</v>
+        <v>0.316</v>
       </c>
       <c r="O26" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.784</v>
+        <v>0.789</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T26" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U26" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="V26" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X26" t="n">
         <v>5.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA26" t="n">
         <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI26" t="n">
         <v>8</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5142,7 +5209,7 @@
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5151,40 +5218,40 @@
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
         <v>16</v>
       </c>
       <c r="AS26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT26" t="n">
         <v>17</v>
       </c>
-      <c r="AT26" t="n">
-        <v>18</v>
-      </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
         <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5330,7 +5397,7 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
         <v>18</v>
@@ -5351,7 +5418,7 @@
         <v>20</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5491,13 +5558,13 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>13</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -5545,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-1.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
@@ -5882,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
@@ -6022,28 +6089,28 @@
         <v>-8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-16-2011-12</t>
+          <t>2012-02-16</t>
         </is>
       </c>
     </row>
